--- a/phancongql.xlsx
+++ b/phancongql.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Nam_3_Kỳ2\Thuctapnhom\KHO\QL_KHO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Nam_3_Kỳ2\Thuctapnhom\Kho_Tu_final\QL_KHO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>STT</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Xây dựng module hướng dẫn sử dụng phần mềm (menu Help, F1) chi tiết đến từng chức năng</t>
   </si>
   <si>
-    <t>Xây dựng tài liệu hướng dẫn cài đặt, vận hành</t>
-  </si>
-  <si>
     <t>Ghép nối các module để nhận được phần mềm hoàn chỉnh</t>
   </si>
   <si>
@@ -101,7 +98,25 @@
     <t>Tú</t>
   </si>
   <si>
-    <t xml:space="preserve">Tú </t>
+    <t xml:space="preserve">Linh </t>
+  </si>
+  <si>
+    <t>Tuấn</t>
+  </si>
+  <si>
+    <t>Sơn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xây dựng module nhà cung cấp </t>
+  </si>
+  <si>
+    <t>Xây dựng module hàng hóa</t>
+  </si>
+  <si>
+    <t>Giáp</t>
+  </si>
+  <si>
+    <t>4.11</t>
   </si>
 </sst>
 </file>
@@ -545,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,151 +591,165 @@
         <v>0</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="5" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/phancongql.xlsx
+++ b/phancongql.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Nam_3_Kỳ2\Thuctapnhom\Kho_Tu_final\QL_KHO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Nam_3_Kỳ2\Thuctapnhom\Kho de day mau\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/phancongql.xlsx
+++ b/phancongql.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Nam_3_Kỳ2\Thuctapnhom\Kho de day mau\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="6045"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>STT</t>
   </si>
@@ -117,6 +112,9 @@
   </si>
   <si>
     <t>4.11</t>
+  </si>
+  <si>
+    <t>Hạnh</t>
   </si>
 </sst>
 </file>
@@ -316,7 +314,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,7 +349,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -563,7 +561,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,7 +719,7 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
